--- a/test_files/表达式参数信息1.xlsx
+++ b/test_files/表达式参数信息1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="651">
   <si>
     <t>name</t>
   </si>
@@ -65,21 +65,15 @@
     <t>['虚拟物料']</t>
   </si>
   <si>
-    <t>BS2W</t>
-  </si>
-  <si>
-    <t>左二玻扇宽</t>
+    <t>BS3W</t>
+  </si>
+  <si>
+    <t>左三玻扇宽</t>
   </si>
   <si>
     <t>['五金包']</t>
   </si>
   <si>
-    <t>BS3W</t>
-  </si>
-  <si>
-    <t>左三玻扇宽</t>
-  </si>
-  <si>
     <t>BS4W</t>
   </si>
   <si>
@@ -1311,6 +1305,12 @@
   </si>
   <si>
     <t>纱网面积</t>
+  </si>
+  <si>
+    <t>BSH3</t>
+  </si>
+  <si>
+    <t>SSW6</t>
   </si>
   <si>
     <t>SSJA</t>
@@ -1992,7 +1992,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2003,13 +2003,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2477,28 +2470,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2507,118 +2503,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2980,10 +2973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E278"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3188,10 +3181,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3199,16 +3192,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -3216,13 +3209,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -3279,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3293,24 +3286,24 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -3324,7 +3317,7 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -3335,13 +3328,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -3375,7 +3368,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -3386,16 +3379,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -3403,16 +3396,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>61</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -3426,7 +3419,7 @@
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -3437,13 +3430,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -3460,7 +3453,7 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -3471,13 +3464,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -3488,13 +3481,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -3505,16 +3498,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
@@ -3522,16 +3515,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -3539,16 +3532,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -3556,16 +3549,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -3573,16 +3566,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
         <v>89</v>
       </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -3596,10 +3589,10 @@
         <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -3613,10 +3606,10 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -3630,10 +3623,10 @@
         <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -3647,10 +3640,10 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -3658,16 +3651,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -3681,10 +3674,10 @@
         <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -3698,10 +3691,10 @@
         <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -3715,10 +3708,10 @@
         <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -3732,10 +3725,10 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -3743,13 +3736,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
         <v>111</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" t="s">
-        <v>113</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -3766,7 +3759,7 @@
         <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
@@ -3783,7 +3776,7 @@
         <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
@@ -3794,16 +3787,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -3811,16 +3804,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -3834,7 +3827,7 @@
         <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -3845,13 +3838,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -3862,13 +3855,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
@@ -3885,7 +3878,7 @@
         <v>134</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
@@ -3902,7 +3895,7 @@
         <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
@@ -3919,7 +3912,7 @@
         <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
@@ -3930,13 +3923,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
         <v>139</v>
-      </c>
-      <c r="B56" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
@@ -3953,10 +3946,10 @@
         <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
         <v>8</v>
@@ -3964,16 +3957,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" t="s">
         <v>144</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>145</v>
-      </c>
-      <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" t="s">
-        <v>147</v>
       </c>
       <c r="E58" t="s">
         <v>8</v>
@@ -3987,10 +3980,10 @@
         <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -3998,16 +3991,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -4021,7 +4014,7 @@
         <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -4038,7 +4031,7 @@
         <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -4049,13 +4042,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
         <v>157</v>
-      </c>
-      <c r="B63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>159</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
@@ -4072,7 +4065,7 @@
         <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -4089,7 +4082,7 @@
         <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -4106,7 +4099,7 @@
         <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -4117,13 +4110,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -4134,13 +4127,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -4157,7 +4150,7 @@
         <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -4174,7 +4167,7 @@
         <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -4191,7 +4184,7 @@
         <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -4202,13 +4195,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
-      </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" t="s">
-        <v>180</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -4225,7 +4218,7 @@
         <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -4242,7 +4235,7 @@
         <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -4253,13 +4246,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" t="s">
         <v>185</v>
-      </c>
-      <c r="B75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" t="s">
-        <v>187</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -4276,7 +4269,7 @@
         <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
@@ -4310,7 +4303,7 @@
         <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
@@ -4327,7 +4320,7 @@
         <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -4347,7 +4340,7 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
         <v>8</v>
@@ -4355,47 +4348,47 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -4415,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -4423,16 +4416,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
         <v>8</v>
@@ -4440,16 +4433,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
@@ -4457,50 +4450,50 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -4508,53 +4501,53 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C91" t="s">
         <v>231</v>
       </c>
-      <c r="B91" t="s">
-        <v>232</v>
-      </c>
-      <c r="C91" t="s">
-        <v>233</v>
-      </c>
       <c r="D91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>238</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4565,10 +4558,10 @@
         <v>241</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
       <c r="E93" t="s">
         <v>8</v>
@@ -4576,16 +4569,16 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D94" t="s">
-        <v>245</v>
+        <v>8</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -4593,16 +4586,16 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
+        <v>247</v>
+      </c>
+      <c r="B95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" t="s">
         <v>246</v>
       </c>
-      <c r="B95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" t="s">
-        <v>248</v>
-      </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -4610,16 +4603,16 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
+        <v>250</v>
+      </c>
+      <c r="B96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
         <v>249</v>
-      </c>
-      <c r="B96" t="s">
-        <v>250</v>
-      </c>
-      <c r="C96" t="s">
-        <v>248</v>
-      </c>
-      <c r="D96" t="s">
-        <v>251</v>
       </c>
       <c r="E96" t="s">
         <v>8</v>
@@ -4633,10 +4626,10 @@
         <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="E97" t="s">
         <v>8</v>
@@ -4644,13 +4637,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -4701,7 +4694,7 @@
         <v>262</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -4718,7 +4711,7 @@
         <v>264</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -4752,7 +4745,7 @@
         <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
@@ -4806,7 +4799,7 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
         <v>8</v>
@@ -4814,16 +4807,16 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>278</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -4831,13 +4824,13 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" t="s">
+        <v>280</v>
+      </c>
+      <c r="C109" t="s">
         <v>278</v>
-      </c>
-      <c r="B109" t="s">
-        <v>279</v>
-      </c>
-      <c r="C109" t="s">
-        <v>280</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
@@ -4854,7 +4847,7 @@
         <v>282</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -4956,7 +4949,7 @@
         <v>294</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
@@ -4973,10 +4966,10 @@
         <v>296</v>
       </c>
       <c r="C117" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
       <c r="E117" t="s">
         <v>8</v>
@@ -4984,16 +4977,16 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>299</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -5007,7 +5000,7 @@
         <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
@@ -5018,13 +5011,13 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C120" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
@@ -5041,7 +5034,7 @@
         <v>306</v>
       </c>
       <c r="C121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -5058,10 +5051,10 @@
         <v>308</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -5069,16 +5062,16 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>8</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -5092,7 +5085,7 @@
         <v>313</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -5109,7 +5102,7 @@
         <v>315</v>
       </c>
       <c r="C125" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -5126,10 +5119,10 @@
         <v>317</v>
       </c>
       <c r="C126" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -5137,16 +5130,16 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B127" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>89</v>
       </c>
       <c r="D127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -5154,16 +5147,16 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B128" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D128" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -5177,10 +5170,10 @@
         <v>326</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -5194,10 +5187,10 @@
         <v>328</v>
       </c>
       <c r="C130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D130" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -5211,10 +5204,10 @@
         <v>330</v>
       </c>
       <c r="C131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -5228,10 +5221,10 @@
         <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="D132" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -5239,16 +5232,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B133" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C133" t="s">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="E133" t="s">
         <v>8</v>
@@ -5256,16 +5249,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
+        <v>337</v>
+      </c>
+      <c r="B134" t="s">
+        <v>338</v>
+      </c>
+      <c r="C134" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" t="s">
         <v>336</v>
-      </c>
-      <c r="B134" t="s">
-        <v>337</v>
-      </c>
-      <c r="C134" t="s">
-        <v>91</v>
-      </c>
-      <c r="D134" t="s">
-        <v>338</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -5279,10 +5272,10 @@
         <v>340</v>
       </c>
       <c r="C135" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -5296,10 +5289,10 @@
         <v>342</v>
       </c>
       <c r="C136" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D136" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -5307,16 +5300,16 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B137" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C137" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E137" t="s">
         <v>8</v>
@@ -5324,16 +5317,16 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
+        <v>347</v>
+      </c>
+      <c r="B138" t="s">
+        <v>348</v>
+      </c>
+      <c r="C138" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" t="s">
         <v>346</v>
-      </c>
-      <c r="B138" t="s">
-        <v>347</v>
-      </c>
-      <c r="C138" t="s">
-        <v>91</v>
-      </c>
-      <c r="D138" t="s">
-        <v>348</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -5347,10 +5340,10 @@
         <v>350</v>
       </c>
       <c r="C139" t="s">
-        <v>91</v>
+        <v>333</v>
       </c>
       <c r="D139" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -5364,10 +5357,10 @@
         <v>352</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -5381,10 +5374,10 @@
         <v>354</v>
       </c>
       <c r="C141" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -5398,10 +5391,10 @@
         <v>356</v>
       </c>
       <c r="C142" t="s">
-        <v>335</v>
+        <v>89</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>336</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -5415,10 +5408,10 @@
         <v>358</v>
       </c>
       <c r="C143" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D143" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -5432,10 +5425,10 @@
         <v>360</v>
       </c>
       <c r="C144" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D144" t="s">
-        <v>338</v>
+        <v>32</v>
       </c>
       <c r="E144" t="s">
         <v>8</v>
@@ -5449,10 +5442,10 @@
         <v>362</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -5466,10 +5459,10 @@
         <v>364</v>
       </c>
       <c r="C146" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D146" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -5477,16 +5470,16 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
+        <v>366</v>
+      </c>
+      <c r="B147" t="s">
+        <v>367</v>
+      </c>
+      <c r="C147" t="s">
+        <v>89</v>
+      </c>
+      <c r="D147" t="s">
         <v>365</v>
-      </c>
-      <c r="B147" t="s">
-        <v>366</v>
-      </c>
-      <c r="C147" t="s">
-        <v>91</v>
-      </c>
-      <c r="D147" t="s">
-        <v>367</v>
       </c>
       <c r="E147" t="s">
         <v>8</v>
@@ -5500,10 +5493,10 @@
         <v>369</v>
       </c>
       <c r="C148" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="E148" t="s">
         <v>8</v>
@@ -5517,10 +5510,10 @@
         <v>371</v>
       </c>
       <c r="C149" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="D149" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="E149" t="s">
         <v>8</v>
@@ -5528,16 +5521,16 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B150" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>335</v>
+        <v>246</v>
       </c>
       <c r="D150" t="s">
-        <v>374</v>
+        <v>32</v>
       </c>
       <c r="E150" t="s">
         <v>8</v>
@@ -5551,10 +5544,10 @@
         <v>376</v>
       </c>
       <c r="C151" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E151" t="s">
         <v>8</v>
@@ -5568,10 +5561,10 @@
         <v>378</v>
       </c>
       <c r="C152" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E152" t="s">
         <v>8</v>
@@ -5585,10 +5578,10 @@
         <v>380</v>
       </c>
       <c r="C153" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E153" t="s">
         <v>8</v>
@@ -5602,10 +5595,10 @@
         <v>382</v>
       </c>
       <c r="C154" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="D154" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -5619,7 +5612,7 @@
         <v>384</v>
       </c>
       <c r="C155" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -5636,10 +5629,10 @@
         <v>386</v>
       </c>
       <c r="C156" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D156" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E156" t="s">
         <v>8</v>
@@ -5653,10 +5646,10 @@
         <v>388</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D157" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E157" t="s">
         <v>8</v>
@@ -5673,7 +5666,7 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -5687,10 +5680,10 @@
         <v>392</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>393</v>
       </c>
       <c r="D159" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -5698,13 +5691,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B160" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C160" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D160" t="s">
         <v>8</v>
@@ -5715,13 +5708,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B161" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C161" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D161" t="s">
         <v>8</v>
@@ -5732,13 +5725,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162" t="s">
+        <v>401</v>
+      </c>
+      <c r="C162" t="s">
         <v>399</v>
-      </c>
-      <c r="B162" t="s">
-        <v>400</v>
-      </c>
-      <c r="C162" t="s">
-        <v>401</v>
       </c>
       <c r="D162" t="s">
         <v>8</v>
@@ -5755,7 +5748,7 @@
         <v>403</v>
       </c>
       <c r="C163" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D163" t="s">
         <v>8</v>
@@ -5766,13 +5759,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
-        <v>406</v>
+        <v>178</v>
       </c>
       <c r="D164" t="s">
         <v>8</v>
@@ -5789,7 +5782,7 @@
         <v>408</v>
       </c>
       <c r="C165" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D165" t="s">
         <v>8</v>
@@ -5806,7 +5799,7 @@
         <v>410</v>
       </c>
       <c r="C166" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D166" t="s">
         <v>8</v>
@@ -5823,7 +5816,7 @@
         <v>412</v>
       </c>
       <c r="C167" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
@@ -5840,7 +5833,7 @@
         <v>414</v>
       </c>
       <c r="C168" t="s">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -5851,13 +5844,13 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
+        <v>416</v>
+      </c>
+      <c r="B169" t="s">
+        <v>417</v>
+      </c>
+      <c r="C169" t="s">
         <v>415</v>
-      </c>
-      <c r="B169" t="s">
-        <v>416</v>
-      </c>
-      <c r="C169" t="s">
-        <v>417</v>
       </c>
       <c r="D169" t="s">
         <v>8</v>
@@ -5874,7 +5867,7 @@
         <v>419</v>
       </c>
       <c r="C170" t="s">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="D170" t="s">
         <v>8</v>
@@ -5891,7 +5884,7 @@
         <v>421</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D171" t="s">
         <v>8</v>
@@ -5908,7 +5901,7 @@
         <v>423</v>
       </c>
       <c r="C172" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D172" t="s">
         <v>8</v>
@@ -5925,7 +5918,7 @@
         <v>425</v>
       </c>
       <c r="C173" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D173" t="s">
         <v>8</v>
@@ -5939,10 +5932,10 @@
         <v>426</v>
       </c>
       <c r="B174" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C174" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="D174" t="s">
         <v>8</v>
@@ -5953,13 +5946,13 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C175" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D175" t="s">
         <v>8</v>
@@ -5970,16 +5963,16 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B176" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C176" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D176" t="s">
-        <v>434</v>
+        <v>8</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -5987,16 +5980,16 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B177" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>433</v>
       </c>
       <c r="D177" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="E177" t="s">
         <v>8</v>
@@ -6004,13 +5997,13 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B178" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C178" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D178" t="s">
         <v>8</v>
@@ -6021,13 +6014,13 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C179" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D179" t="s">
         <v>8</v>
@@ -6038,13 +6031,13 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B180" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C180" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D180" t="s">
         <v>8</v>
@@ -6055,13 +6048,13 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B181" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D181" t="s">
         <v>8</v>
@@ -6072,13 +6065,13 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B182" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D182" t="s">
         <v>8</v>
@@ -6089,13 +6082,13 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B183" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C183" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -6106,13 +6099,13 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B184" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C184" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D184" t="s">
         <v>8</v>
@@ -6123,13 +6116,13 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B185" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C185" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D185" t="s">
         <v>8</v>
@@ -6140,13 +6133,13 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B186" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C186" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -6157,13 +6150,13 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B187" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C187" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D187" t="s">
         <v>8</v>
@@ -6174,16 +6167,16 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B188" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C188" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D188" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
         <v>8</v>
@@ -6191,16 +6184,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B189" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C189" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -6208,13 +6201,13 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B190" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C190" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
@@ -6225,13 +6218,13 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B191" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C191" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -6242,16 +6235,16 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B192" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C192" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
-        <v>467</v>
+        <v>8</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -6259,16 +6252,16 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B193" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C193" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="D193" t="s">
-        <v>8</v>
+        <v>467</v>
       </c>
       <c r="E193" t="s">
         <v>8</v>
@@ -6276,13 +6269,13 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B194" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D194" t="s">
         <v>8</v>
@@ -6293,13 +6286,13 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B195" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C195" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -6310,13 +6303,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B196" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C196" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D196" t="s">
         <v>8</v>
@@ -6327,13 +6320,13 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B197" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C197" t="s">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="D197" t="s">
         <v>8</v>
@@ -6344,13 +6337,13 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B198" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C198" t="s">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="D198" t="s">
         <v>8</v>
@@ -6361,13 +6354,13 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B199" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C199" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="D199" t="s">
         <v>8</v>
@@ -6378,13 +6371,13 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B200" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C200" t="s">
-        <v>485</v>
+        <v>14</v>
       </c>
       <c r="D200" t="s">
         <v>8</v>
@@ -6395,10 +6388,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B201" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C201" t="s">
         <v>485</v>
@@ -6412,13 +6405,13 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B202" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C202" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
       <c r="D202" t="s">
         <v>8</v>
@@ -6429,13 +6422,13 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B203" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C203" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D203" t="s">
         <v>8</v>
@@ -6446,13 +6439,13 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B204" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C204" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D204" t="s">
         <v>8</v>
@@ -6463,13 +6456,13 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B205" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C205" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D205" t="s">
         <v>8</v>
@@ -6480,16 +6473,16 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B206" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C206" t="s">
-        <v>498</v>
+        <v>130</v>
       </c>
       <c r="D206" t="s">
-        <v>499</v>
+        <v>8</v>
       </c>
       <c r="E206" t="s">
         <v>8</v>
@@ -6497,16 +6490,16 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B207" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C207" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D207" t="s">
-        <v>8</v>
+        <v>499</v>
       </c>
       <c r="E207" t="s">
         <v>8</v>
@@ -6514,10 +6507,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B208" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C208" t="s">
         <v>502</v>
@@ -6531,13 +6524,13 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B209" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
@@ -6548,10 +6541,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B210" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
@@ -6565,10 +6558,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B211" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -6582,13 +6575,13 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B212" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C212" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D212" t="s">
         <v>8</v>
@@ -6599,13 +6592,13 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C213" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D213" t="s">
         <v>8</v>
@@ -6616,10 +6609,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B214" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C214" t="s">
         <v>14</v>
@@ -6633,10 +6626,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B215" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
@@ -6650,10 +6643,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B216" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
@@ -6667,13 +6660,13 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B217" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C217" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D217" t="s">
         <v>8</v>
@@ -6684,13 +6677,13 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B218" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C218" t="s">
-        <v>525</v>
+        <v>58</v>
       </c>
       <c r="D218" t="s">
         <v>8</v>
@@ -6701,10 +6694,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B219" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C219" t="s">
         <v>525</v>
@@ -6718,10 +6711,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B220" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C220" t="s">
         <v>525</v>
@@ -6735,13 +6728,13 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B221" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C221" t="s">
-        <v>180</v>
+        <v>525</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
@@ -6752,13 +6745,13 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B222" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C222" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
@@ -6769,13 +6762,13 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B223" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C223" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D223" t="s">
         <v>8</v>
@@ -6786,13 +6779,13 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B224" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C224" t="s">
-        <v>538</v>
+        <v>178</v>
       </c>
       <c r="D224" t="s">
         <v>8</v>
@@ -6803,16 +6796,16 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B225" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>538</v>
       </c>
       <c r="D225" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E225" t="s">
         <v>8</v>
@@ -6820,16 +6813,16 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B226" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C226" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D226" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E226" t="s">
         <v>8</v>
@@ -6837,13 +6830,13 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B227" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C227" t="s">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="D227" t="s">
         <v>8</v>
@@ -6854,13 +6847,13 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B228" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C228" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -6871,13 +6864,13 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B229" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C229" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D229" t="s">
         <v>8</v>
@@ -6888,13 +6881,13 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B230" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C230" t="s">
-        <v>14</v>
+        <v>551</v>
       </c>
       <c r="D230" t="s">
         <v>8</v>
@@ -6905,13 +6898,13 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B231" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C231" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D231" t="s">
         <v>8</v>
@@ -6922,13 +6915,13 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B232" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C232" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D232" t="s">
         <v>8</v>
@@ -6939,10 +6932,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B233" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
@@ -6956,10 +6949,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B234" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -6973,10 +6966,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B235" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -6990,10 +6983,10 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B236" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -7007,16 +7000,16 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B237" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
       </c>
       <c r="D237" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -7024,16 +7017,16 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B238" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -7041,13 +7034,13 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B239" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C239" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D239" t="s">
         <v>8</v>
@@ -7058,10 +7051,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B240" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C240" t="s">
         <v>11</v>
@@ -7075,16 +7068,16 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B241" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C241" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>576</v>
+        <v>8</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -7092,16 +7085,16 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B242" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>576</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
@@ -7109,10 +7102,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B243" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C243" t="s">
         <v>11</v>
@@ -7126,13 +7119,13 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B244" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C244" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D244" t="s">
         <v>8</v>
@@ -7143,13 +7136,13 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B245" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C245" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -7160,13 +7153,13 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B246" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C246" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D246" t="s">
         <v>8</v>
@@ -7177,13 +7170,13 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B247" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C247" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D247" t="s">
         <v>8</v>
@@ -7194,13 +7187,13 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B248" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C248" t="s">
-        <v>591</v>
+        <v>178</v>
       </c>
       <c r="D248" t="s">
         <v>8</v>
@@ -7211,16 +7204,16 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B249" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C249" t="s">
-        <v>88</v>
+        <v>591</v>
       </c>
       <c r="D249" t="s">
-        <v>594</v>
+        <v>8</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -7228,16 +7221,16 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B250" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C250" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D250" t="s">
-        <v>8</v>
+        <v>594</v>
       </c>
       <c r="E250" t="s">
         <v>8</v>
@@ -7245,16 +7238,16 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B251" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C251" t="s">
-        <v>401</v>
+        <v>139</v>
       </c>
       <c r="D251" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E251" t="s">
         <v>8</v>
@@ -7262,16 +7255,16 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B252" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C252" t="s">
-        <v>14</v>
+        <v>399</v>
       </c>
       <c r="D252" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E252" t="s">
         <v>8</v>
@@ -7279,16 +7272,16 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B253" t="s">
-        <v>466</v>
+        <v>600</v>
       </c>
       <c r="C253" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D253" t="s">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="E253" t="s">
         <v>8</v>
@@ -7296,16 +7289,16 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B254" t="s">
-        <v>604</v>
+        <v>466</v>
       </c>
       <c r="C254" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D254" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -7313,16 +7306,16 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B255" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C255" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D255" t="s">
-        <v>34</v>
+        <v>605</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -7330,16 +7323,16 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B256" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C256" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D256" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -7347,67 +7340,67 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B257" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C257" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D257" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="E257" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B258" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C258" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D258" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E258" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B259" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C259" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D259" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B260" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C260" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D260" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E260" t="s">
         <v>8</v>
@@ -7415,13 +7408,13 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B261" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C261" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D261" t="s">
         <v>8</v>
@@ -7432,13 +7425,13 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B262" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C262" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D262" t="s">
         <v>8</v>
@@ -7449,16 +7442,16 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B263" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C263" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D263" t="s">
-        <v>624</v>
+        <v>8</v>
       </c>
       <c r="E263" t="s">
         <v>8</v>
@@ -7466,16 +7459,16 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B264" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C264" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D264" t="s">
-        <v>8</v>
+        <v>624</v>
       </c>
       <c r="E264" t="s">
         <v>8</v>
@@ -7483,13 +7476,13 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B265" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C265" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D265" t="s">
         <v>8</v>
@@ -7500,13 +7493,13 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B266" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C266" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="D266" t="s">
         <v>8</v>
@@ -7517,13 +7510,13 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B267" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C267" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D267" t="s">
         <v>8</v>
@@ -7534,13 +7527,13 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B268" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C268" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="D268" t="s">
         <v>8</v>
@@ -7551,16 +7544,16 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B269" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D269" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E269" t="s">
         <v>8</v>
@@ -7568,16 +7561,16 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B270" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C270" t="s">
         <v>14</v>
       </c>
       <c r="D270" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E270" t="s">
         <v>8</v>
@@ -7585,16 +7578,16 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B271" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
       </c>
       <c r="D271" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E271" t="s">
         <v>8</v>
@@ -7602,16 +7595,16 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B272" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C272" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D272" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="E272" t="s">
         <v>8</v>
@@ -7619,13 +7612,13 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B273" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C273" t="s">
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="D273" t="s">
         <v>8</v>
@@ -7636,13 +7629,13 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B274" t="s">
-        <v>557</v>
+        <v>644</v>
       </c>
       <c r="C274" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="D274" t="s">
         <v>8</v>
@@ -7653,10 +7646,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B275" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C275" t="s">
         <v>11</v>
@@ -7670,10 +7663,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B276" t="s">
-        <v>648</v>
+        <v>559</v>
       </c>
       <c r="C276" t="s">
         <v>11</v>
@@ -7687,16 +7680,16 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B277" t="s">
-        <v>319</v>
+        <v>648</v>
       </c>
       <c r="C277" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="D277" t="s">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -7704,18 +7697,35 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
+        <v>649</v>
+      </c>
+      <c r="B278" t="s">
+        <v>317</v>
+      </c>
+      <c r="C278" t="s">
+        <v>318</v>
+      </c>
+      <c r="D278" t="s">
+        <v>319</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
         <v>650</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
+        <v>317</v>
+      </c>
+      <c r="C279" t="s">
+        <v>318</v>
+      </c>
+      <c r="D279" t="s">
         <v>319</v>
       </c>
-      <c r="C278" t="s">
-        <v>320</v>
-      </c>
-      <c r="D278" t="s">
-        <v>321</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="E279" t="s">
         <v>8</v>
       </c>
     </row>
